--- a/traces/Visualizations/methodTimesWithGraph.xlsx
+++ b/traces/Visualizations/methodTimesWithGraph.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="methodTimes" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">methodTimes!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>ExecutionTime</t>
   </si>
@@ -452,9 +455,6 @@
   </si>
   <si>
     <t>setConnectTimeout</t>
-  </si>
-  <si>
-    <t>testConnectTimeout</t>
   </si>
   <si>
     <t>Methods</t>
@@ -1108,438 +1108,435 @@
             <c:strRef>
               <c:f>methodTimes!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
+                  <c:v>readLine</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>_connect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>connect</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pass</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pasv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>user</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>cwd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>quit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>testLookupDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sendCommand</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>syst</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>testListNames</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>testListNamesWithPathButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>getReply</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pwd</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>testArray</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>testListFilesWithIncorrectParser</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>suite</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>testGetDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>readStream</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>__getReply</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>listNames</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>initiateListParsing</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>readNextEntry</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>__createParser</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>_openDataConnection_</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>createFileEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>testInitiateListParsingWithPathAndIncorrectParser</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>readServerList</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fireReplyReceived</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>tearDown</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>fireCommandSent</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>testUnparseableFiles</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>testFTPClientConfigStringStringStringStringStringString</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>setDefaultDateFormat</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>preParse</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>testListFilesWithPathAndAutodectionButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>testParseClient</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>testInitiateListParsingWithPathAndAutodetectionButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>testInitiateListParsingWithPathAndAutodetection</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>setRecentDateFormat</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>changeWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>testPrintWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>_connectAction_</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>setUp</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>listFiles</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>getDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>disconnect</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>resetIterator</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>login</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>configure</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>verifyRemote</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>createNTFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>completePendingCommand</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>logout</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>testFTPClientConfigString</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>getListArguments</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>getEntry</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>testInitiateListParsing</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>getSystemType</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>testListFiles</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>printWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>compileRegex</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>testParserCachingNullKey</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>getFiles</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>getListenerCount</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>testListNamesWithPath</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>testListFilesWithAutodection</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>getNext</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>testParserCachingWithKey</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>parseTimestamp</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>testTimeZoneFunctionality</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>__send</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>getOverrideProperties</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>parseFTPEntry</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>getSortedList</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>testInitiateListParsingWithPath</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>testListFilesWithPathAndAutodetection</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>findByName</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>toString</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>closeQuietly</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>_parsePassiveModeReply</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>lookupDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>splitShortMonthString</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>__parsePathname</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>getReplyString</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>matches</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>checkArray</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>setServerTimeZone</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>__buildMessage</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>__lenientCheck</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>setServerTimeZoneId</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>getRemoteAddress</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>isPositiveIntermediate</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>setConnectTimeout</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>toCharset</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>getServerSystemKey</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>getDefaultConfiguration</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>testSetShortMonthNames</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>hasNext</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>isLenientFutureDates</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>getEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>testGetServerLanguageCode</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>isPositiveCompletion</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>__initDefaults</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>getCommand</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>isPositivePreliminary</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>getUnparseableEntries</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>enterLocalPassiveMode</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>isStrictMultilineParsing</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>getServerTimeZoneId</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>getControlEncoding</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>getListHiddenFiles</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>getShortMonthNames</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>setDefaultDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>getDefaultDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>getRecentDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>indexOf</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>setRecentDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>setSystemType</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>setUnparseableEntries</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>getCommandSupport</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>setDefaultPort</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>__initDefaults</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>setServerTimeZoneId</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>configure</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>_connectAction_</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>getControlEncoding</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>readLine</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>isStrictMultilineParsing</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>__lenientCheck</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>getReplyString</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>getCommandSupport</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>getListenerCount</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fireReplyReceived</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>__getReply</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>isPositivePreliminary</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>_connect</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>connect</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>getCommand</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>__buildMessage</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>__send</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>fireCommandSent</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>sendCommand</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>user</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>isPositiveCompletion</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>isPositiveIntermediate</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>pass</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>login</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>cwd</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>changeWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>enterLocalPassiveMode</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>setUp</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>getServerSystemKey</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>compileRegex</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>indexOf</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>getEntry</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>setDefaultDateFormat</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>setRecentDateFormat</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>getDefaultConfiguration</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>getDefaultDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>setDefaultDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>getRecentDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>setRecentDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="124">
                   <c:v>getServerLanguageCode</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>getShortMonthNames</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>lookupDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>getServerTimeZoneId</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>setServerTimeZone</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>isLenientFutureDates</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>createFileEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>__createParser</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>getListHiddenFiles</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>getListArguments</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>getRemoteAddress</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="125">
                   <c:v>isUseEPSVwithIPv4</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>pasv</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>_parsePassiveModeReply</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>verifyRemote</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>_openDataConnection_</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>getUnparseableEntries</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>toCharset</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>readNextEntry</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>readStream</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>preParse</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>resetIterator</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>readServerList</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>closeQuietly</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>getReply</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>completePendingCommand</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>initiateListParsing</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="126">
+                  <c:v>setPrecision</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>isVersioning</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>getServerTimeZone</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>setTimestamp</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>setType</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>setUser</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>setHardLinkCount</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>group</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>accept</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>setName</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>setGroup</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>setSize</c:v>
+                </c:pt>
+                <c:pt idx="138">
                   <c:v>setRawListing</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>matches</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>group</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>getServerTimeZone</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>setPrecision</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>parseTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>setTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>setType</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="139">
                   <c:v>setPermission</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>setHardLinkCount</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>setUser</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>setGroup</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>setSize</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>setName</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>parseFTPEntry</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>accept</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>getFiles</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>listFiles</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="140">
                   <c:v>getName</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="141">
+                  <c:v>getRawListing</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>getTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>getSortedList</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>testTimeZoneFunctionality</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>disconnect</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>tearDown</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>testFTPClientConfigStringStringStringStringStringString</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>splitShortMonthString</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>getDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>testLookupDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>testGetDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>testGetServerLanguageCode</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>testFTPClientConfigString</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>testSetShortMonthNames</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>__parsePathname</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>testParseClient</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>getEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>testParserCachingWithKey</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>setSystemType</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>getSystemType</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>getOverrideProperties</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>testParserCachingNullKey</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>setUnparseableEntries</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>testUnparseableFiles</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>checkArray</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>testArray</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>suite</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>syst</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>getNext</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>getRawListing</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>toString</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>findByName</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>testInitiateListParsing</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>quit</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>logout</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>isConnected</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>hasNext</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>testInitiateListParsingWithPathAndAutodetectionButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>testInitiateListParsingWithPathAndIncorrectParser</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>listNames</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>testListNames</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>testListFiles</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>printWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>testPrintWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>testListFilesWithAutodection</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>testListNamesWithPathButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>testListFilesWithIncorrectParser</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>testInitiateListParsingWithPath</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>testListNamesWithPath</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>testInitiateListParsingWithPathAndAutodetection</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>testListFilesWithPathAndAutodectionButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>testListFilesWithPathAndAutodetection</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>isVersioning</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>createNTFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>setConnectTimeout</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>testConnectTimeout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,436 +1548,433 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="144"/>
                 <c:pt idx="0">
+                  <c:v>72759744.165217295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24466701.159090899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14207650.9195402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4651442.74418604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4651055.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4573857.11627906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4317825.7692307597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4162966.1190476101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3882954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3270026.8135283301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3240000.2777777701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2955004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2896751.3333333302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2829139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2706407.66666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2639485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2282956.66666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2177459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2126902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2081137.4333333301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1953180.7890625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1588576.41666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1585927.33783783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1443793.962239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1416915.3076923001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1415205.6875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1354665.0857142799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1287304.66666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1276481.83333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1101892.7718750001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1073984.9534883699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1040982.3553719</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1008802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>960291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>946790.26190476096</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>914604.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>830342.66666666605</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>814464</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>778032.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>761375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>759723.68253968202</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>744260.61538461503</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>724455.33333333302</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>679220.22674418602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>676997.74418604595</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>618899.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>597858.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>583282.55813953397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>579710.73333333305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>577086.69767441798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>564309.87570621399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>563566.65714285697</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>540931</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>538709.82857142796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>487347.09523809497</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>479561</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399210.625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>398067.559523809</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>392572</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>365557.78947368398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>334709</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>333831.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>327774.71052631497</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>317370</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>314999.19444444397</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>279248.90213523101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>271391</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>267592</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>260870.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>253662</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>245585.72101522799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>208365</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>202577.05371900799</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>194722.368421052</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>153924.804335742</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>137352</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>134818.66666666599</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>115920.33333333299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>114821.38095238</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>94291.682844243798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>65209.777070063697</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64080.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>61532.144444444399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23671.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23405.3636363636</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15168.9125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14795.181453921001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9643</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8845.2093023255802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7926.6280991735503</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7526.2459459459396</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7306</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7255.2533333333304</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7040.9302325581302</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6722</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6614.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6253.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5719.4047619047597</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5553</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5260.3333333333303</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5076.8023255813896</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5026.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4767.7113402061796</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4334.8484848484804</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4279.6652892561897</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4028.6428571428501</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3883.6265060240898</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3701.7777777777701</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3187.3720930232498</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2940.5027027026999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2875.8863636363599</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2523.8842975206599</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2491.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2457.5340909090901</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2386.1284403669702</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2288.7345132743299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2224.6602870813399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2204.9090909090901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2191.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2191.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1883.4074733095999</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>1759.78260869565</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4334.8484848484804</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>564309.87570621399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>679220.22674418602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2523.8842975206599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72759744.165217295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2940.5027027026999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7526.2459459459396</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15168.9125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1883.4074733095999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>279248.90213523101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1101892.7718750001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1953180.7890625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3883.6265060240898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24466701.159090899</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14207650.9195402</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4279.6652892561897</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7926.6280991735503</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>202577.05371900799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1040982.3553719</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3270026.8135283301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4573857.11627906</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4767.7113402061796</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7040.9302325581302</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4651442.74418604</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>577086.69767441798</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4317825.7692307597</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>744260.61538461503</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3187.3720930232498</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>676997.74418604595</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6253.92</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>327774.71052631497</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2224.6602870813399</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>398067.559523809</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>946790.26190476096</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>759723.68253968202</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5719.4047619047597</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2386.1284403669702</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2403</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2288.7345132743299</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2204.9090909090901</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="124">
                   <c:v>1716.875</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>2457.5340909090901</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>61532.144444444399</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2875.8863636363599</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8845.2093023255802</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5076.8023255813896</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1354665.0857142799</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1416915.3076923001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2491.35</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>399210.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7255.2533333333304</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="125">
                   <c:v>1680.325</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>4651055.6500000004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>64080.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>563566.65714285697</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1415205.6875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3701.7777777777701</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6614.3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1443793.962239</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2081137.4333333301</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>914604.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>579710.73333333305</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1276481.83333333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65209.777070063697</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2829139</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>538709.82857142796</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1585927.33783783</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="126">
+                  <c:v>1325.92987804878</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1148.3525641025601</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>737.32693538067804</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>710.62743902439001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>577.18281535648998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>559.71463414634104</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>516.74258760107796</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>510.97632755229699</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>506.98944591028999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>496.14564290067</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>435.50426829268201</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>429.72151127361298</c:v>
+                </c:pt>
+                <c:pt idx="138">
                   <c:v>398.25329512893899</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>14795.181453921001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>510.97632755229699</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>737.32693538067804</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1325.92987804878</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>245585.72101522799</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>710.62743902439001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>577.18281535648998</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="139">
                   <c:v>381.65250677506702</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>516.74258760107796</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>559.71463414634104</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>435.50426829268201</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>429.72151127361298</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>496.14564290067</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>153924.804335742</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>506.98944591028999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>314999.19444444397</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>618899.75</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="140">
                   <c:v>322.987818383167</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="141">
+                  <c:v>270.143340857787</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>170.87490501519699</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>137352</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>208365</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>583282.55813953397</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1073984.9534883699</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>960291</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23671.200000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>597858.80000000005</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3882954</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2126902</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4968</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>479561</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5553</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>23405.3636363636</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>814464</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5026.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>253662</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2191.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>365557.78947368398</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>194722.368421052</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>317370</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2191.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1008802</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9643</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2639485</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2177459</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3240000.2777777701</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>260870.33333333299</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>270.143340857787</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>94291.682844243798</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>114821.38095238</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>392572</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4162966.1190476101</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>487347.09523809497</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4028.6428571428501</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5260.3333333333303</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>778032.33333333302</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1287304.66666666</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1588576.41666666</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2955004</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>334709</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2706407.66666666</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>333831.66666666599</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>724455.33333333302</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>267592</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2896751.3333333302</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2282956.66666666</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>134818.66666666599</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>271391</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>761375</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>830342.66666666605</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>115920.33333333299</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1148.3525641025601</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>540931</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>6722</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1006513965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,11 +1990,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="231488128"/>
-        <c:axId val="231489304"/>
+        <c:axId val="521042904"/>
+        <c:axId val="521038984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231488128"/>
+        <c:axId val="521042904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231489304"/>
+        <c:crossAx val="521038984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231489304"/>
+        <c:axId val="521038984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231488128"/>
+        <c:crossAx val="521042904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,1162 +3003,1163 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1759.78260869565</v>
+        <v>72759744.165217295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4334.8484848484804</v>
+        <v>24466701.159090899</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7306</v>
+        <v>14207650.9195402</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>564309.87570621399</v>
+        <v>4651442.74418604</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>679220.22674418602</v>
+        <v>4651055.6500000004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2523.8842975206599</v>
+        <v>4573857.11627906</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>72759744.165217295</v>
+        <v>4317825.7692307597</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2940.5027027026999</v>
+        <v>4162966.1190476101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7526.2459459459396</v>
+        <v>3882954</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>15168.9125</v>
+        <v>3270026.8135283301</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1883.4074733095999</v>
+        <v>3240000.2777777701</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>279248.90213523101</v>
+        <v>2955004</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1101892.7718750001</v>
+        <v>2896751.3333333302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1953180.7890625</v>
+        <v>2829139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3883.6265060240898</v>
+        <v>2706407.66666666</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24466701.159090899</v>
+        <v>2639485</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>14207650.9195402</v>
+        <v>2282956.66666666</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4279.6652892561897</v>
+        <v>2177459</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7926.6280991735503</v>
+        <v>2126902</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>202577.05371900799</v>
+        <v>2081137.4333333301</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1040982.3553719</v>
+        <v>1953180.7890625</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3270026.8135283301</v>
+        <v>1588576.41666666</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4573857.11627906</v>
+        <v>1585927.33783783</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4767.7113402061796</v>
+        <v>1443793.962239</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>7040.9302325581302</v>
+        <v>1416915.3076923001</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4651442.74418604</v>
+        <v>1415205.6875</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>577086.69767441798</v>
+        <v>1354665.0857142799</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4317825.7692307597</v>
+        <v>1287304.66666666</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>744260.61538461503</v>
+        <v>1276481.83333333</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3187.3720930232498</v>
+        <v>1101892.7718750001</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>676997.74418604595</v>
+        <v>1073984.9534883699</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6253.92</v>
+        <v>1040982.3553719</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>327774.71052631497</v>
+        <v>1008802</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2224.6602870813399</v>
+        <v>960291</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>398067.559523809</v>
+        <v>946790.26190476096</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>946790.26190476096</v>
+        <v>914604.6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>759723.68253968202</v>
+        <v>830342.66666666605</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>5719.4047619047597</v>
+        <v>814464</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2386.1284403669702</v>
+        <v>778032.33333333302</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2403</v>
+        <v>761375</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2288.7345132743299</v>
+        <v>759723.68253968202</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2204.9090909090901</v>
+        <v>744260.61538461503</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1716.875</v>
+        <v>724455.33333333302</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2457.5340909090901</v>
+        <v>679220.22674418602</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>61532.144444444399</v>
+        <v>676997.74418604595</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>2875.8863636363599</v>
+        <v>618899.75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>8845.2093023255802</v>
+        <v>597858.80000000005</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>5076.8023255813896</v>
+        <v>583282.55813953397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1354665.0857142799</v>
+        <v>579710.73333333305</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1416915.3076923001</v>
+        <v>577086.69767441798</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2491.35</v>
+        <v>564309.87570621399</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>399210.625</v>
+        <v>563566.65714285697</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7255.2533333333304</v>
+        <v>540931</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1680.325</v>
+        <v>538709.82857142796</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>4651055.6500000004</v>
+        <v>487347.09523809497</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>64080.3</v>
+        <v>479561</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>563566.65714285697</v>
+        <v>399210.625</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>1415205.6875</v>
+        <v>398067.559523809</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>3701.7777777777701</v>
+        <v>392572</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>6614.3</v>
+        <v>365557.78947368398</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1443793.962239</v>
+        <v>334709</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>2081137.4333333301</v>
+        <v>333831.66666666599</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>914604.6</v>
+        <v>327774.71052631497</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>579710.73333333305</v>
+        <v>317370</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1276481.83333333</v>
+        <v>314999.19444444397</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65209.777070063697</v>
+        <v>279248.90213523101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2829139</v>
+        <v>271391</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>538709.82857142796</v>
+        <v>267592</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1585927.33783783</v>
+        <v>260870.33333333299</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>398.25329512893899</v>
+        <v>253662</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>14795.181453921001</v>
+        <v>245585.72101522799</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>510.97632755229699</v>
+        <v>208365</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>737.32693538067804</v>
+        <v>202577.05371900799</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1325.92987804878</v>
+        <v>194722.368421052</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>245585.72101522799</v>
+        <v>153924.804335742</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>710.62743902439001</v>
+        <v>137352</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>577.18281535648998</v>
+        <v>134818.66666666599</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>381.65250677506702</v>
+        <v>115920.33333333299</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>516.74258760107796</v>
+        <v>114821.38095238</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>559.71463414634104</v>
+        <v>94291.682844243798</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>435.50426829268201</v>
+        <v>65209.777070063697</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>429.72151127361298</v>
+        <v>64080.3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>496.14564290067</v>
+        <v>61532.144444444399</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>153924.804335742</v>
+        <v>23671.200000000001</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>506.98944591028999</v>
+        <v>23405.3636363636</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>314999.19444444397</v>
+        <v>15168.9125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>618899.75</v>
+        <v>14795.181453921001</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>322.987818383167</v>
+        <v>9643</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>170.87490501519699</v>
+        <v>8845.2093023255802</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>137352</v>
+        <v>7926.6280991735503</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>208365</v>
+        <v>7526.2459459459396</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>583282.55813953397</v>
+        <v>7306</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>1073984.9534883699</v>
+        <v>7255.2533333333304</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>960291</v>
+        <v>7040.9302325581302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>23671.200000000001</v>
+        <v>6722</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>597858.80000000005</v>
+        <v>6614.3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>3882954</v>
+        <v>6253.92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>2126902</v>
+        <v>5719.4047619047597</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>4968</v>
+        <v>5553</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>479561</v>
+        <v>5260.3333333333303</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>5553</v>
+        <v>5076.8023255813896</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>23405.3636363636</v>
+        <v>5026.6000000000004</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>814464</v>
+        <v>4968</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>5026.6000000000004</v>
+        <v>4767.7113402061796</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>253662</v>
+        <v>4334.8484848484804</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>2191.5</v>
+        <v>4279.6652892561897</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>365557.78947368398</v>
+        <v>4028.6428571428501</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>194722.368421052</v>
+        <v>3883.6265060240898</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>317370</v>
+        <v>3701.7777777777701</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>2191.5</v>
+        <v>3187.3720930232498</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1008802</v>
+        <v>2940.5027027026999</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>9643</v>
+        <v>2875.8863636363599</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>2639485</v>
+        <v>2523.8842975206599</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>2177459</v>
+        <v>2491.35</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>3240000.2777777701</v>
+        <v>2457.5340909090901</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>260870.33333333299</v>
+        <v>2403</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>270.143340857787</v>
+        <v>2386.1284403669702</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>94291.682844243798</v>
+        <v>2288.7345132743299</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>114821.38095238</v>
+        <v>2224.6602870813399</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>392572</v>
+        <v>2204.9090909090901</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>4162966.1190476101</v>
+        <v>2191.5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>487347.09523809497</v>
+        <v>2191.5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>4028.6428571428501</v>
+        <v>1883.4074733095999</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>5260.3333333333303</v>
+        <v>1759.78260869565</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>778032.33333333302</v>
+        <v>1716.875</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>1287304.66666666</v>
+        <v>1680.325</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>1588576.41666666</v>
+        <v>1325.92987804878</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>2955004</v>
+        <v>1148.3525641025601</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>334709</v>
+        <v>737.32693538067804</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>2706407.66666666</v>
+        <v>710.62743902439001</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>333831.66666666599</v>
+        <v>577.18281535648998</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>724455.33333333302</v>
+        <v>559.71463414634104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>267592</v>
+        <v>516.74258760107796</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>2896751.3333333302</v>
+        <v>510.97632755229699</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>2282956.66666666</v>
+        <v>506.98944591028999</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>134818.66666666599</v>
+        <v>496.14564290067</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>271391</v>
+        <v>435.50426829268201</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>761375</v>
+        <v>429.72151127361298</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>830342.66666666605</v>
+        <v>398.25329512893899</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>115920.33333333299</v>
+        <v>381.65250677506702</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1148.3525641025601</v>
+        <v>322.987818383167</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>540931</v>
+        <v>270.143340857787</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>6722</v>
+        <v>170.87490501519699</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>1006513965</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B144">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4173,8 +4168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
